--- a/data/trans_orig/P36B02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A581B36-9CA1-4C9C-AC44-B2335D521138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B468AE3-B43F-4D67-B849-1DE89F1F221A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EEAD1035-9860-4056-ABA4-F6B6BE34A238}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AF53BB30-F39C-45A1-AD31-B0DB78A05819}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="562">
-  <si>
-    <t>Población según la frecuencia de consumición de leche y derivados en 2007 (Tasa respuesta: 99,97%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="545">
+  <si>
+    <t>Población según la frecuencia de consumo de leche y derivados en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,7 +77,7 @@
     <t>3,19%</t>
   </si>
   <si>
-    <t>2,33%</t>
+    <t>2,15%</t>
   </si>
   <si>
     <t>4,4%</t>
@@ -86,1618 +86,1564 @@
     <t>2,47%</t>
   </si>
   <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de leche y derivados en 2012 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de leche y derivados en 2015 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de leche y derivados en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
   </si>
   <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
   </si>
   <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de leche y derivados en 2012 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de leche y derivados en 2015 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de leche y derivados en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
   </si>
   <si>
     <t>18,55%</t>
   </si>
   <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
     <t>15,89%</t>
   </si>
   <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
   </si>
   <si>
     <t>16,34%</t>
   </si>
   <si>
-    <t>15,23%</t>
+    <t>15,24%</t>
   </si>
   <si>
     <t>17,33%</t>
@@ -1706,25 +1652,28 @@
     <t>70,25%</t>
   </si>
   <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
   </si>
   <si>
     <t>73,24%</t>
   </si>
   <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
   </si>
   <si>
     <t>71,83%</t>
   </si>
   <si>
-    <t>70,54%</t>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
   </si>
 </sst>
 </file>
@@ -2136,7 +2085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC70AECB-5F35-4A5F-BF87-96FBEB35029D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDA3654-27D5-44D9-8D5F-38889CEF627C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2293,16 +2242,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>15</v>
@@ -2311,13 +2260,13 @@
         <v>15320</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -2326,13 +2275,13 @@
         <v>9116</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -2341,19 +2290,19 @@
         <v>24436</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>39</v>
@@ -2362,13 +2311,13 @@
         <v>38170</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>36</v>
@@ -2377,13 +2326,13 @@
         <v>35849</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>75</v>
@@ -2392,19 +2341,19 @@
         <v>74019</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>52</v>
@@ -2413,13 +2362,13 @@
         <v>50388</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>54</v>
@@ -2428,13 +2377,13 @@
         <v>54698</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>106</v>
@@ -2443,19 +2392,19 @@
         <v>105085</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>898</v>
@@ -2464,13 +2413,13 @@
         <v>894979</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>1160</v>
@@ -2479,13 +2428,13 @@
         <v>1183028</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>2058</v>
@@ -2494,13 +2443,13 @@
         <v>2078008</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,13 +2464,13 @@
         <v>1031723</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2530,13 +2479,13 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>2329</v>
@@ -2545,18 +2494,18 @@
         <v>2346836</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2571,10 +2520,10 @@
         <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -2583,13 +2532,13 @@
         <v>40530</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -2598,19 +2547,19 @@
         <v>82407</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>20</v>
@@ -2619,13 +2568,13 @@
         <v>19335</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -2634,13 +2583,13 @@
         <v>18473</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>37</v>
@@ -2649,19 +2598,19 @@
         <v>37808</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>53</v>
@@ -2670,13 +2619,13 @@
         <v>57085</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>40</v>
@@ -2685,13 +2634,13 @@
         <v>40518</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>93</v>
@@ -2700,19 +2649,19 @@
         <v>97603</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>94</v>
@@ -2721,13 +2670,13 @@
         <v>90873</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
@@ -2736,13 +2685,13 @@
         <v>90611</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>183</v>
@@ -2751,19 +2700,19 @@
         <v>181483</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>1443</v>
@@ -2772,13 +2721,13 @@
         <v>1483361</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>1368</v>
@@ -2787,13 +2736,13 @@
         <v>1396408</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>2811</v>
@@ -2802,13 +2751,13 @@
         <v>2879769</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,13 +2772,13 @@
         <v>1692531</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>1553</v>
@@ -2838,13 +2787,13 @@
         <v>1586540</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>3201</v>
@@ -2853,18 +2802,18 @@
         <v>3279071</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2876,13 +2825,13 @@
         <v>7574</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -2891,13 +2840,13 @@
         <v>7415</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -2906,19 +2855,19 @@
         <v>14990</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>4</v>
@@ -2927,13 +2876,13 @@
         <v>4695</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2942,13 +2891,13 @@
         <v>940</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -2957,19 +2906,19 @@
         <v>5635</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>17</v>
@@ -2978,13 +2927,13 @@
         <v>16198</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -2993,13 +2942,13 @@
         <v>6866</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -3008,19 +2957,19 @@
         <v>23064</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>46</v>
@@ -3029,13 +2978,13 @@
         <v>45485</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -3044,13 +2993,13 @@
         <v>20219</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -3059,19 +3008,19 @@
         <v>65704</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>453</v>
@@ -3080,13 +3029,13 @@
         <v>477455</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>417</v>
@@ -3095,13 +3044,13 @@
         <v>440973</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>870</v>
@@ -3110,13 +3059,13 @@
         <v>918428</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3080,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -3146,13 +3095,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>979</v>
@@ -3161,13 +3110,13 @@
         <v>1027820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,13 +3133,13 @@
         <v>82317</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -3199,13 +3148,13 @@
         <v>80367</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>156</v>
@@ -3214,19 +3163,19 @@
         <v>162683</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>39</v>
@@ -3235,13 +3184,13 @@
         <v>39350</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
@@ -3250,13 +3199,13 @@
         <v>28529</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M23" s="7">
         <v>67</v>
@@ -3265,19 +3214,19 @@
         <v>67879</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>109</v>
@@ -3286,13 +3235,13 @@
         <v>111453</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>83</v>
@@ -3301,13 +3250,13 @@
         <v>83233</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>192</v>
@@ -3316,19 +3265,19 @@
         <v>194686</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>192</v>
@@ -3337,13 +3286,13 @@
         <v>186746</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>163</v>
@@ -3352,13 +3301,13 @@
         <v>165527</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>355</v>
@@ -3367,19 +3316,19 @@
         <v>352273</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>2794</v>
@@ -3388,13 +3337,13 @@
         <v>2855796</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>2945</v>
@@ -3403,13 +3352,13 @@
         <v>3020409</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>5739</v>
@@ -3418,13 +3367,13 @@
         <v>5876205</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3388,13 @@
         <v>3275662</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>3296</v>
@@ -3454,13 +3403,13 @@
         <v>3378065</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>6509</v>
@@ -3469,18 +3418,18 @@
         <v>6653726</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3499,7 +3448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D2E74D-7206-4A80-9A6A-A2555A850E9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F92D357-73A7-429B-8C58-9F6CD96B112D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3516,7 +3465,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3623,13 +3572,13 @@
         <v>31520</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="H4" s="7">
         <v>29</v>
@@ -3638,13 +3587,13 @@
         <v>31230</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
@@ -3653,19 +3602,19 @@
         <v>62749</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>8</v>
@@ -3674,13 +3623,13 @@
         <v>8187</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -3689,13 +3638,13 @@
         <v>11929</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -3704,19 +3653,19 @@
         <v>20116</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>38</v>
@@ -3725,13 +3674,13 @@
         <v>43033</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -3740,13 +3689,13 @@
         <v>24607</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M6" s="7">
         <v>61</v>
@@ -3755,19 +3704,19 @@
         <v>67640</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>25</v>
@@ -3776,13 +3725,13 @@
         <v>28315</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -3791,13 +3740,13 @@
         <v>25685</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>206</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -3806,19 +3755,19 @@
         <v>54000</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>209</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>808</v>
@@ -3827,13 +3776,13 @@
         <v>863588</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>1158</v>
@@ -3842,13 +3791,13 @@
         <v>1242315</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>1966</v>
@@ -3857,13 +3806,13 @@
         <v>2105904</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>217</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,13 +3827,13 @@
         <v>974643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>1245</v>
@@ -3893,13 +3842,13 @@
         <v>1335766</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>2153</v>
@@ -3908,18 +3857,18 @@
         <v>2310409</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3931,13 +3880,13 @@
         <v>50120</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -3946,13 +3895,13 @@
         <v>58626</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -3961,19 +3910,19 @@
         <v>108746</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>15</v>
@@ -3982,13 +3931,13 @@
         <v>17447</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -3997,13 +3946,13 @@
         <v>13399</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -4012,19 +3961,19 @@
         <v>30846</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>48</v>
@@ -4033,13 +3982,13 @@
         <v>48634</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>199</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="H12" s="7">
         <v>35</v>
@@ -4048,13 +3997,13 @@
         <v>39671</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M12" s="7">
         <v>83</v>
@@ -4063,19 +4012,19 @@
         <v>88305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>63</v>
@@ -4084,13 +4033,13 @@
         <v>67588</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -4099,13 +4048,13 @@
         <v>53346</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M13" s="7">
         <v>112</v>
@@ -4114,19 +4063,19 @@
         <v>120934</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>1684</v>
@@ -4135,13 +4084,13 @@
         <v>1779256</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H14" s="7">
         <v>1482</v>
@@ -4150,13 +4099,13 @@
         <v>1589771</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M14" s="7">
         <v>3166</v>
@@ -4165,13 +4114,13 @@
         <v>3369027</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4135,13 @@
         <v>1963044</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>1632</v>
@@ -4201,13 +4150,13 @@
         <v>1754813</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>3487</v>
@@ -4216,18 +4165,18 @@
         <v>3717857</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4239,13 +4188,13 @@
         <v>12463</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -4254,13 +4203,13 @@
         <v>17011</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -4269,19 +4218,19 @@
         <v>29474</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>3</v>
@@ -4290,13 +4239,13 @@
         <v>2810</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>259</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4305,13 +4254,13 @@
         <v>2956</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>261</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>262</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>71</v>
+        <v>255</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -4320,19 +4269,19 @@
         <v>5766</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>123</v>
+        <v>256</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>11</v>
@@ -4341,13 +4290,13 @@
         <v>12792</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -4356,13 +4305,13 @@
         <v>7938</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>71</v>
+        <v>255</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -4371,19 +4320,19 @@
         <v>20729</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>63</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>19</v>
@@ -4392,13 +4341,13 @@
         <v>18574</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>269</v>
+        <v>22</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -4410,10 +4359,10 @@
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>271</v>
+        <v>153</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -4422,19 +4371,19 @@
         <v>29883</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>394</v>
@@ -4443,13 +4392,13 @@
         <v>434542</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H20" s="7">
         <v>375</v>
@@ -4458,13 +4407,13 @@
         <v>418513</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>278</v>
+        <v>172</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>769</v>
@@ -4473,13 +4422,13 @@
         <v>853056</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4443,13 @@
         <v>481181</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>411</v>
@@ -4509,13 +4458,13 @@
         <v>457727</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>849</v>
@@ -4524,13 +4473,13 @@
         <v>938908</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,13 +4496,13 @@
         <v>94103</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="H22" s="7">
         <v>98</v>
@@ -4562,13 +4511,13 @@
         <v>106867</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>183</v>
@@ -4577,19 +4526,19 @@
         <v>200969</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>287</v>
+        <v>105</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>23</v>
+        <v>279</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>288</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>26</v>
@@ -4598,13 +4547,13 @@
         <v>28444</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>156</v>
+        <v>224</v>
       </c>
       <c r="H23" s="7">
         <v>26</v>
@@ -4613,13 +4562,13 @@
         <v>28284</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>290</v>
+        <v>152</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>291</v>
+        <v>146</v>
       </c>
       <c r="M23" s="7">
         <v>52</v>
@@ -4628,19 +4577,19 @@
         <v>56728</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>110</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>292</v>
+        <v>120</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>97</v>
@@ -4649,13 +4598,13 @@
         <v>104459</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>293</v>
+        <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>23</v>
+        <v>277</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>294</v>
+        <v>41</v>
       </c>
       <c r="H24" s="7">
         <v>66</v>
@@ -4664,13 +4613,13 @@
         <v>72215</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>296</v>
+        <v>187</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="M24" s="7">
         <v>163</v>
@@ -4679,19 +4628,19 @@
         <v>176674</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>107</v>
@@ -4700,13 +4649,13 @@
         <v>114476</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="H25" s="7">
         <v>83</v>
@@ -4715,13 +4664,13 @@
         <v>90341</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>188</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>190</v>
@@ -4730,19 +4679,19 @@
         <v>204817</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>297</v>
+        <v>37</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>2886</v>
@@ -4751,13 +4700,13 @@
         <v>3077386</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="H26" s="7">
         <v>3015</v>
@@ -4766,13 +4715,13 @@
         <v>3250600</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>212</v>
+        <v>295</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="M26" s="7">
         <v>5901</v>
@@ -4781,13 +4730,13 @@
         <v>6327987</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,13 +4751,13 @@
         <v>3418868</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>3288</v>
@@ -4817,13 +4766,13 @@
         <v>3548306</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>6489</v>
@@ -4832,18 +4781,18 @@
         <v>6967175</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4862,7 +4811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19246CD-FFD4-4531-8BD5-88C583FC1C10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2745AC6-5294-4CB4-8815-EE666913EA83}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4879,7 +4828,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4986,13 +4935,13 @@
         <v>23058</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>293</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>313</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -5001,13 +4950,13 @@
         <v>14800</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>314</v>
+        <v>220</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -5016,19 +4965,19 @@
         <v>37858</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>316</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>82</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>10</v>
@@ -5037,13 +4986,13 @@
         <v>9741</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>271</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>12</v>
+        <v>305</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -5052,13 +5001,13 @@
         <v>5757</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>259</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>116</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -5067,19 +5016,19 @@
         <v>15498</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>318</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>30</v>
@@ -5088,13 +5037,13 @@
         <v>33667</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -5103,13 +5052,13 @@
         <v>21407</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>321</v>
+        <v>12</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="M6" s="7">
         <v>50</v>
@@ -5118,19 +5067,19 @@
         <v>55074</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>168</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>31</v>
@@ -5139,13 +5088,13 @@
         <v>31429</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>325</v>
+        <v>163</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>208</v>
+        <v>314</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -5154,13 +5103,13 @@
         <v>48556</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="M7" s="7">
         <v>74</v>
@@ -5169,19 +5118,19 @@
         <v>79985</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>320</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>665</v>
@@ -5190,13 +5139,13 @@
         <v>654499</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>52</v>
+        <v>323</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>176</v>
       </c>
       <c r="H8" s="7">
         <v>808</v>
@@ -5205,13 +5154,13 @@
         <v>903259</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
         <v>1473</v>
@@ -5220,13 +5169,13 @@
         <v>1557759</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5190,13 @@
         <v>752395</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>891</v>
@@ -5256,13 +5205,13 @@
         <v>993779</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>1651</v>
@@ -5271,18 +5220,18 @@
         <v>1746174</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5294,13 +5243,13 @@
         <v>70505</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>338</v>
+        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>339</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -5312,10 +5261,10 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>340</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="M10" s="7">
         <v>111</v>
@@ -5324,19 +5273,19 @@
         <v>119515</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>331</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>23</v>
@@ -5345,13 +5294,13 @@
         <v>25002</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>290</v>
+        <v>221</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -5360,13 +5309,13 @@
         <v>14529</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>344</v>
+        <v>146</v>
       </c>
       <c r="M11" s="7">
         <v>38</v>
@@ -5375,19 +5324,19 @@
         <v>39531</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>349</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>80</v>
@@ -5396,13 +5345,13 @@
         <v>86420</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>351</v>
+        <v>214</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="H12" s="7">
         <v>58</v>
@@ -5411,13 +5360,13 @@
         <v>61236</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>224</v>
+        <v>340</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>353</v>
+        <v>234</v>
       </c>
       <c r="M12" s="7">
         <v>138</v>
@@ -5426,19 +5375,19 @@
         <v>147656</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>341</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>354</v>
+        <v>276</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>143</v>
@@ -5447,13 +5396,13 @@
         <v>155046</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>93</v>
+        <v>344</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="H13" s="7">
         <v>117</v>
@@ -5462,13 +5411,13 @@
         <v>122740</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="M13" s="7">
         <v>260</v>
@@ -5477,19 +5426,19 @@
         <v>277786</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>1637</v>
@@ -5498,13 +5447,13 @@
         <v>1734462</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="H14" s="7">
         <v>1669</v>
@@ -5513,13 +5462,13 @@
         <v>1738699</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>356</v>
       </c>
       <c r="M14" s="7">
         <v>3306</v>
@@ -5528,13 +5477,13 @@
         <v>3473159</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,13 +5498,13 @@
         <v>2071435</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>1906</v>
@@ -5564,13 +5513,13 @@
         <v>1986214</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>3853</v>
@@ -5579,18 +5528,18 @@
         <v>4057648</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5602,13 +5551,13 @@
         <v>15435</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -5617,13 +5566,13 @@
         <v>25025</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>372</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>373</v>
+        <v>66</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -5632,19 +5581,19 @@
         <v>40460</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>4</v>
@@ -5653,13 +5602,13 @@
         <v>3883</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>28</v>
+        <v>365</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -5668,13 +5617,13 @@
         <v>2918</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>379</v>
+        <v>191</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -5683,19 +5632,19 @@
         <v>6802</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>74</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>10</v>
@@ -5704,13 +5653,13 @@
         <v>10615</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>383</v>
+        <v>201</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -5719,13 +5668,13 @@
         <v>13847</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>386</v>
+        <v>279</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -5734,19 +5683,19 @@
         <v>24462</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>388</v>
+        <v>180</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>126</v>
+        <v>373</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>389</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>34</v>
@@ -5755,13 +5704,13 @@
         <v>40286</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -5770,13 +5719,13 @@
         <v>47853</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="M19" s="7">
         <v>80</v>
@@ -5785,19 +5734,19 @@
         <v>88139</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>381</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>440</v>
@@ -5806,13 +5755,13 @@
         <v>476667</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="H20" s="7">
         <v>439</v>
@@ -5821,13 +5770,13 @@
         <v>459497</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="M20" s="7">
         <v>879</v>
@@ -5836,13 +5785,13 @@
         <v>936163</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,13 +5806,13 @@
         <v>546886</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>526</v>
@@ -5872,13 +5821,13 @@
         <v>549140</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>1027</v>
@@ -5887,13 +5836,13 @@
         <v>1096026</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,13 +5859,13 @@
         <v>108997</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>406</v>
+        <v>247</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>39</v>
+        <v>392</v>
       </c>
       <c r="H22" s="7">
         <v>85</v>
@@ -5925,13 +5874,13 @@
         <v>88835</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>386</v>
+        <v>279</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>408</v>
+        <v>308</v>
       </c>
       <c r="M22" s="7">
         <v>186</v>
@@ -5940,19 +5889,19 @@
         <v>197832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>38</v>
+        <v>395</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>410</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>37</v>
@@ -5961,13 +5910,13 @@
         <v>38627</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>110</v>
+        <v>282</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>316</v>
+        <v>396</v>
       </c>
       <c r="H23" s="7">
         <v>24</v>
@@ -5976,13 +5925,13 @@
         <v>23204</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>413</v>
+        <v>370</v>
       </c>
       <c r="M23" s="7">
         <v>61</v>
@@ -5991,10 +5940,10 @@
         <v>61831</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>415</v>
+        <v>27</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>70</v>
@@ -6003,7 +5952,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>120</v>
@@ -6012,13 +5961,13 @@
         <v>130703</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>417</v>
+        <v>179</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>272</v>
+        <v>401</v>
       </c>
       <c r="H24" s="7">
         <v>92</v>
@@ -6027,13 +5976,13 @@
         <v>96490</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>388</v>
+        <v>122</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>418</v>
+        <v>78</v>
       </c>
       <c r="M24" s="7">
         <v>212</v>
@@ -6042,19 +5991,19 @@
         <v>227192</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>409</v>
+        <v>105</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>208</v>
@@ -6063,13 +6012,13 @@
         <v>226761</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="H25" s="7">
         <v>206</v>
@@ -6078,13 +6027,13 @@
         <v>219150</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="M25" s="7">
         <v>414</v>
@@ -6093,19 +6042,19 @@
         <v>445911</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>270</v>
+        <v>411</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>2742</v>
@@ -6114,13 +6063,13 @@
         <v>2865628</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="H26" s="7">
         <v>2916</v>
@@ -6129,28 +6078,28 @@
         <v>3101455</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>304</v>
+        <v>418</v>
       </c>
       <c r="M26" s="7">
         <v>5658</v>
       </c>
       <c r="N26" s="7">
-        <v>5967083</v>
+        <v>5967082</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,13 +6114,13 @@
         <v>3370716</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>3323</v>
@@ -6180,33 +6129,33 @@
         <v>3529133</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>6531</v>
       </c>
       <c r="N27" s="7">
-        <v>6899850</v>
+        <v>6899849</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -6225,7 +6174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6C4E8B-8D9D-4A8E-B6C9-0D20583BD020}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83AB558-88BC-4567-82A9-605CC835C94C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6242,7 +6191,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6349,13 +6298,13 @@
         <v>24681</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>372</v>
+        <v>266</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>210</v>
+        <v>423</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>374</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>55</v>
@@ -6364,10 +6313,10 @@
         <v>34771</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>436</v>
+        <v>194</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>424</v>
@@ -6379,19 +6328,19 @@
         <v>59453</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>437</v>
+        <v>215</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>29</v>
@@ -6400,13 +6349,13 @@
         <v>25758</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>427</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -6415,13 +6364,13 @@
         <v>17815</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>318</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>442</v>
+        <v>311</v>
       </c>
       <c r="M5" s="7">
         <v>56</v>
@@ -6430,19 +6379,19 @@
         <v>43573</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>302</v>
+        <v>430</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>39</v>
@@ -6451,13 +6400,13 @@
         <v>34975</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>444</v>
+        <v>401</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="H6" s="7">
         <v>58</v>
@@ -6466,13 +6415,13 @@
         <v>35154</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="M6" s="7">
         <v>97</v>
@@ -6481,19 +6430,19 @@
         <v>70129</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>449</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>88</v>
@@ -6502,13 +6451,13 @@
         <v>73666</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="H7" s="7">
         <v>232</v>
@@ -6517,13 +6466,13 @@
         <v>146294</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="M7" s="7">
         <v>320</v>
@@ -6532,19 +6481,19 @@
         <v>219960</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>506</v>
@@ -6553,13 +6502,13 @@
         <v>382553</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="H8" s="7">
         <v>1055</v>
@@ -6568,13 +6517,13 @@
         <v>601919</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="M8" s="7">
         <v>1561</v>
@@ -6583,13 +6532,13 @@
         <v>984471</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6604,13 +6553,13 @@
         <v>541634</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>1427</v>
@@ -6619,13 +6568,13 @@
         <v>835953</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>2118</v>
@@ -6634,18 +6583,18 @@
         <v>1377586</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6657,13 +6606,13 @@
         <v>119553</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="H10" s="7">
         <v>132</v>
@@ -6672,13 +6621,13 @@
         <v>97479</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>470</v>
+        <v>231</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>385</v>
+        <v>260</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>456</v>
       </c>
       <c r="M10" s="7">
         <v>228</v>
@@ -6687,19 +6636,19 @@
         <v>217033</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>33</v>
+        <v>457</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>44</v>
+        <v>458</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>46</v>
@@ -6708,13 +6657,13 @@
         <v>49342</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>472</v>
+        <v>251</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="H11" s="7">
         <v>58</v>
@@ -6723,13 +6672,13 @@
         <v>58995</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>476</v>
+        <v>81</v>
       </c>
       <c r="M11" s="7">
         <v>104</v>
@@ -6738,19 +6687,19 @@
         <v>108337</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>383</v>
+        <v>463</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>416</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>87</v>
@@ -6759,28 +6708,28 @@
         <v>100488</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>477</v>
+        <v>85</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="H12" s="7">
         <v>122</v>
       </c>
       <c r="I12" s="7">
-        <v>95835</v>
+        <v>95836</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>355</v>
+        <v>431</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>351</v>
+        <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="M12" s="7">
         <v>209</v>
@@ -6789,19 +6738,19 @@
         <v>196323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>340</v>
@@ -6810,13 +6759,13 @@
         <v>380946</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="H13" s="7">
         <v>481</v>
@@ -6825,13 +6774,13 @@
         <v>373563</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="M13" s="7">
         <v>821</v>
@@ -6840,19 +6789,19 @@
         <v>754509</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>1423</v>
@@ -6861,28 +6810,28 @@
         <v>1511693</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="H14" s="7">
         <v>2128</v>
       </c>
       <c r="I14" s="7">
-        <v>1623647</v>
+        <v>1623648</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="M14" s="7">
         <v>3551</v>
@@ -6891,13 +6840,13 @@
         <v>3135341</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6912,28 +6861,28 @@
         <v>2162022</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>2921</v>
       </c>
       <c r="I15" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>4913</v>
@@ -6942,18 +6891,18 @@
         <v>4411543</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6965,13 +6914,13 @@
         <v>29720</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>499</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -6980,13 +6929,13 @@
         <v>31557</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>436</v>
+        <v>214</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>501</v>
+        <v>167</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -6995,19 +6944,19 @@
         <v>61277</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>220</v>
+        <v>487</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>502</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>14</v>
@@ -7016,13 +6965,13 @@
         <v>16788</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>503</v>
+        <v>277</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>505</v>
+        <v>338</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -7031,13 +6980,13 @@
         <v>15898</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>388</v>
+        <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>506</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="M17" s="7">
         <v>38</v>
@@ -7046,19 +6995,19 @@
         <v>32686</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>217</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>33</v>
@@ -7067,13 +7016,13 @@
         <v>34343</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>479</v>
+        <v>375</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>42</v>
+        <v>487</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
@@ -7082,13 +7031,13 @@
         <v>25635</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>509</v>
+        <v>262</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="M18" s="7">
         <v>69</v>
@@ -7097,19 +7046,19 @@
         <v>59978</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>437</v>
+        <v>215</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>104</v>
@@ -7118,13 +7067,13 @@
         <v>114279</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="H19" s="7">
         <v>114</v>
@@ -7133,13 +7082,13 @@
         <v>83701</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="M19" s="7">
         <v>218</v>
@@ -7148,19 +7097,19 @@
         <v>197980</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>505</v>
@@ -7169,13 +7118,13 @@
         <v>477909</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="H20" s="7">
         <v>782</v>
@@ -7184,13 +7133,13 @@
         <v>557094</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="M20" s="7">
         <v>1287</v>
@@ -7199,13 +7148,13 @@
         <v>1035004</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7220,13 +7169,13 @@
         <v>673039</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>1004</v>
@@ -7235,13 +7184,13 @@
         <v>713886</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>1685</v>
@@ -7250,13 +7199,13 @@
         <v>1386926</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7273,13 +7222,13 @@
         <v>173955</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>359</v>
+        <v>512</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="H22" s="7">
         <v>235</v>
@@ -7288,13 +7237,13 @@
         <v>163808</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>532</v>
+        <v>317</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="M22" s="7">
         <v>385</v>
@@ -7303,19 +7252,19 @@
         <v>337762</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>534</v>
+        <v>249</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>44</v>
+        <v>517</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>89</v>
@@ -7324,13 +7273,13 @@
         <v>91888</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>536</v>
+        <v>285</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>109</v>
@@ -7339,13 +7288,13 @@
         <v>92708</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="M23" s="7">
         <v>198</v>
@@ -7354,19 +7303,19 @@
         <v>184597</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>77</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>159</v>
@@ -7375,13 +7324,13 @@
         <v>169806</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="H24" s="7">
         <v>216</v>
@@ -7390,13 +7339,13 @@
         <v>156624</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>387</v>
+        <v>523</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>541</v>
+        <v>185</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="M24" s="7">
         <v>375</v>
@@ -7405,19 +7354,19 @@
         <v>326430</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>544</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>532</v>
@@ -7426,13 +7375,13 @@
         <v>568890</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="H25" s="7">
         <v>827</v>
@@ -7441,13 +7390,13 @@
         <v>603558</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="M25" s="7">
         <v>1359</v>
@@ -7456,34 +7405,34 @@
         <v>1172449</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>2434</v>
       </c>
       <c r="D26" s="7">
-        <v>2372156</v>
+        <v>2372155</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="H26" s="7">
         <v>3965</v>
@@ -7492,28 +7441,28 @@
         <v>2782661</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="M26" s="7">
         <v>6399</v>
       </c>
       <c r="N26" s="7">
-        <v>5154817</v>
+        <v>5154816</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>467</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7525,16 +7474,16 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>5352</v>
@@ -7543,33 +7492,33 @@
         <v>3799360</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>8716</v>
       </c>
       <c r="N27" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B02-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B468AE3-B43F-4D67-B849-1DE89F1F221A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D2F1671-8DED-4D9D-82B5-9192D2F9F52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AF53BB30-F39C-45A1-AD31-B0DB78A05819}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3EFA1EE3-3903-4B65-B2ED-1EAC8860C0F5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="546">
   <si>
     <t>Población según la frecuencia de consumo de leche y derivados en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,1525 +77,1528 @@
     <t>3,19%</t>
   </si>
   <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de leche y derivados en 2012 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de leche y derivados en 2016 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de leche y derivados en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
   </si>
   <si>
     <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de leche y derivados en 2012 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de leche y derivados en 2015 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de leche y derivados en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
   </si>
   <si>
     <t>3,99%</t>
@@ -2085,7 +2088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDA3654-27D5-44D9-8D5F-38889CEF627C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C81566F-570D-474F-BA18-D047E9C1A7BA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2242,16 +2245,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>15</v>
@@ -2260,13 +2263,13 @@
         <v>15320</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -2275,13 +2278,13 @@
         <v>9116</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -2290,19 +2293,19 @@
         <v>24436</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>39</v>
@@ -2311,13 +2314,13 @@
         <v>38170</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>36</v>
@@ -2326,13 +2329,13 @@
         <v>35849</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>75</v>
@@ -2341,19 +2344,19 @@
         <v>74019</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>52</v>
@@ -2362,13 +2365,13 @@
         <v>50388</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>54</v>
@@ -2377,13 +2380,13 @@
         <v>54698</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>106</v>
@@ -2392,19 +2395,19 @@
         <v>105085</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>898</v>
@@ -2413,13 +2416,13 @@
         <v>894979</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>1160</v>
@@ -2428,13 +2431,13 @@
         <v>1183028</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>2058</v>
@@ -2443,13 +2446,13 @@
         <v>2078008</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,13 +2467,13 @@
         <v>1031723</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2479,13 +2482,13 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2329</v>
@@ -2494,18 +2497,18 @@
         <v>2346836</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2520,10 +2523,10 @@
         <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -2532,13 +2535,13 @@
         <v>40530</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -2547,19 +2550,19 @@
         <v>82407</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>20</v>
@@ -2568,13 +2571,13 @@
         <v>19335</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -2583,13 +2586,13 @@
         <v>18473</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>37</v>
@@ -2598,19 +2601,19 @@
         <v>37808</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>53</v>
@@ -2619,13 +2622,13 @@
         <v>57085</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>40</v>
@@ -2634,13 +2637,13 @@
         <v>40518</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>93</v>
@@ -2649,19 +2652,19 @@
         <v>97603</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>94</v>
@@ -2670,13 +2673,13 @@
         <v>90873</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
@@ -2685,13 +2688,13 @@
         <v>90611</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>183</v>
@@ -2700,19 +2703,19 @@
         <v>181483</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>1443</v>
@@ -2721,13 +2724,13 @@
         <v>1483361</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>1368</v>
@@ -2736,13 +2739,13 @@
         <v>1396408</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>2811</v>
@@ -2751,13 +2754,13 @@
         <v>2879769</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,13 +2775,13 @@
         <v>1692531</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1553</v>
@@ -2787,13 +2790,13 @@
         <v>1586540</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3201</v>
@@ -2802,18 +2805,18 @@
         <v>3279071</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2825,13 +2828,13 @@
         <v>7574</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -2840,13 +2843,13 @@
         <v>7415</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -2855,19 +2858,19 @@
         <v>14990</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>4</v>
@@ -2876,13 +2879,13 @@
         <v>4695</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2891,13 +2894,13 @@
         <v>940</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -2906,19 +2909,19 @@
         <v>5635</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>17</v>
@@ -2927,13 +2930,13 @@
         <v>16198</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -2942,13 +2945,13 @@
         <v>6866</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -2957,19 +2960,19 @@
         <v>23064</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>46</v>
@@ -2978,13 +2981,13 @@
         <v>45485</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -2993,13 +2996,13 @@
         <v>20219</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -3008,19 +3011,19 @@
         <v>65704</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>453</v>
@@ -3029,13 +3032,13 @@
         <v>477455</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>417</v>
@@ -3044,13 +3047,13 @@
         <v>440973</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>870</v>
@@ -3059,13 +3062,13 @@
         <v>918428</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,13 +3083,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -3095,13 +3098,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>979</v>
@@ -3110,13 +3113,13 @@
         <v>1027820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,13 +3136,13 @@
         <v>82317</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -3148,13 +3151,13 @@
         <v>80367</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>156</v>
@@ -3163,19 +3166,19 @@
         <v>162683</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>39</v>
@@ -3184,13 +3187,13 @@
         <v>39350</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
@@ -3199,13 +3202,13 @@
         <v>28529</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M23" s="7">
         <v>67</v>
@@ -3214,19 +3217,19 @@
         <v>67879</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>109</v>
@@ -3235,13 +3238,13 @@
         <v>111453</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H24" s="7">
         <v>83</v>
@@ -3250,13 +3253,13 @@
         <v>83233</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>192</v>
@@ -3265,19 +3268,19 @@
         <v>194686</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>192</v>
@@ -3286,13 +3289,13 @@
         <v>186746</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="H25" s="7">
         <v>163</v>
@@ -3301,13 +3304,13 @@
         <v>165527</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>355</v>
@@ -3316,19 +3319,19 @@
         <v>352273</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>2794</v>
@@ -3337,13 +3340,13 @@
         <v>2855796</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H26" s="7">
         <v>2945</v>
@@ -3352,13 +3355,13 @@
         <v>3020409</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>5739</v>
@@ -3367,13 +3370,13 @@
         <v>5876205</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,13 +3391,13 @@
         <v>3275662</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3296</v>
@@ -3403,13 +3406,13 @@
         <v>3378065</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6509</v>
@@ -3418,18 +3421,18 @@
         <v>6653726</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3448,7 +3451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F92D357-73A7-429B-8C58-9F6CD96B112D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B641F4BE-1BB4-4E07-836E-3994998B7A6F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3465,7 +3468,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3572,13 +3575,13 @@
         <v>31520</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
         <v>29</v>
@@ -3587,13 +3590,13 @@
         <v>31230</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
@@ -3602,19 +3605,19 @@
         <v>62749</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>8</v>
@@ -3623,13 +3626,13 @@
         <v>8187</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -3638,13 +3641,13 @@
         <v>11929</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -3653,19 +3656,19 @@
         <v>20116</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>38</v>
@@ -3674,13 +3677,13 @@
         <v>43033</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -3689,13 +3692,13 @@
         <v>24607</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M6" s="7">
         <v>61</v>
@@ -3704,19 +3707,19 @@
         <v>67640</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>199</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>25</v>
@@ -3728,10 +3731,10 @@
         <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -3740,13 +3743,13 @@
         <v>25685</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>203</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -3755,19 +3758,19 @@
         <v>54000</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>808</v>
@@ -3776,13 +3779,13 @@
         <v>863588</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>1158</v>
@@ -3791,28 +3794,28 @@
         <v>1242315</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>1966</v>
       </c>
       <c r="N8" s="7">
-        <v>2105904</v>
+        <v>2105905</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,13 +3830,13 @@
         <v>974643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1245</v>
@@ -3842,33 +3845,33 @@
         <v>1335766</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2153</v>
       </c>
       <c r="N9" s="7">
-        <v>2310409</v>
+        <v>2310410</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3880,13 +3883,13 @@
         <v>50120</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>213</v>
+        <v>64</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -3895,13 +3898,13 @@
         <v>58626</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>214</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -3910,19 +3913,19 @@
         <v>108746</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>15</v>
@@ -3931,13 +3934,13 @@
         <v>17447</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -3946,13 +3949,13 @@
         <v>13399</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>223</v>
+        <v>157</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -3961,19 +3964,19 @@
         <v>30846</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>48</v>
@@ -3982,13 +3985,13 @@
         <v>48634</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="H12" s="7">
         <v>35</v>
@@ -3997,13 +4000,13 @@
         <v>39671</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M12" s="7">
         <v>83</v>
@@ -4012,19 +4015,19 @@
         <v>88305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>117</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>63</v>
@@ -4033,13 +4036,13 @@
         <v>67588</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>231</v>
+        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -4051,10 +4054,10 @@
         <v>232</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M13" s="7">
         <v>112</v>
@@ -4063,19 +4066,19 @@
         <v>120934</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>1684</v>
@@ -4084,13 +4087,13 @@
         <v>1779256</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H14" s="7">
         <v>1482</v>
@@ -4099,13 +4102,13 @@
         <v>1589771</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
         <v>3166</v>
@@ -4114,13 +4117,13 @@
         <v>3369027</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4138,13 @@
         <v>1963044</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1632</v>
@@ -4150,13 +4153,13 @@
         <v>1754813</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3487</v>
@@ -4165,18 +4168,18 @@
         <v>3717857</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4188,13 +4191,13 @@
         <v>12463</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -4203,13 +4206,13 @@
         <v>17011</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -4218,19 +4221,19 @@
         <v>29474</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>3</v>
@@ -4239,13 +4242,13 @@
         <v>2810</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>251</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4254,13 +4257,13 @@
         <v>2956</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -4269,19 +4272,19 @@
         <v>5766</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>256</v>
+        <v>124</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>11</v>
@@ -4290,13 +4293,13 @@
         <v>12792</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>259</v>
+        <v>90</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -4305,13 +4308,13 @@
         <v>7938</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -4320,19 +4323,19 @@
         <v>20729</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>19</v>
@@ -4341,13 +4344,13 @@
         <v>18574</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -4359,10 +4362,10 @@
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>153</v>
+        <v>258</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -4371,19 +4374,19 @@
         <v>29883</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>44</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>394</v>
@@ -4392,13 +4395,13 @@
         <v>434542</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>375</v>
@@ -4407,13 +4410,13 @@
         <v>418513</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>769</v>
@@ -4422,13 +4425,13 @@
         <v>853056</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,13 +4446,13 @@
         <v>481181</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>411</v>
@@ -4458,13 +4461,13 @@
         <v>457727</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>849</v>
@@ -4473,13 +4476,13 @@
         <v>938908</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,13 +4499,13 @@
         <v>94103</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>261</v>
+        <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>98</v>
@@ -4511,13 +4514,13 @@
         <v>106867</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>183</v>
@@ -4526,19 +4529,19 @@
         <v>200969</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>279</v>
+        <v>23</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>26</v>
@@ -4547,13 +4550,13 @@
         <v>28444</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>280</v>
+        <v>222</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
         <v>26</v>
@@ -4562,13 +4565,13 @@
         <v>28284</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>152</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>146</v>
+        <v>276</v>
       </c>
       <c r="M23" s="7">
         <v>52</v>
@@ -4577,19 +4580,19 @@
         <v>56728</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>120</v>
+        <v>277</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>113</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>97</v>
@@ -4598,13 +4601,13 @@
         <v>104459</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>156</v>
+        <v>279</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>277</v>
+        <v>38</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="H24" s="7">
         <v>66</v>
@@ -4613,13 +4616,13 @@
         <v>72215</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>283</v>
+        <v>189</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M24" s="7">
         <v>163</v>
@@ -4628,19 +4631,19 @@
         <v>176674</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>37</v>
+        <v>283</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>107</v>
@@ -4649,13 +4652,13 @@
         <v>114476</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>288</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>83</v>
@@ -4664,13 +4667,13 @@
         <v>90341</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>189</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>37</v>
       </c>
       <c r="M25" s="7">
         <v>190</v>
@@ -4679,19 +4682,19 @@
         <v>204817</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>37</v>
+        <v>286</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>2886</v>
@@ -4700,13 +4703,13 @@
         <v>3077386</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H26" s="7">
         <v>3015</v>
@@ -4715,28 +4718,28 @@
         <v>3250600</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M26" s="7">
         <v>5901</v>
       </c>
       <c r="N26" s="7">
-        <v>6327987</v>
+        <v>6327986</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,13 +4754,13 @@
         <v>3418868</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3288</v>
@@ -4766,33 +4769,33 @@
         <v>3548306</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6489</v>
       </c>
       <c r="N27" s="7">
-        <v>6967175</v>
+        <v>6967174</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4811,7 +4814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2745AC6-5294-4CB4-8815-EE666913EA83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3018C26B-692A-4EFE-A935-D805DBB2D215}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4828,7 +4831,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4935,13 +4938,13 @@
         <v>23058</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>279</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -4950,13 +4953,13 @@
         <v>14800</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>107</v>
+        <v>299</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -4965,19 +4968,19 @@
         <v>37858</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>187</v>
+        <v>300</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>10</v>
@@ -4986,13 +4989,13 @@
         <v>9741</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>301</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -5001,13 +5004,13 @@
         <v>5757</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>116</v>
+        <v>304</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -5016,19 +5019,19 @@
         <v>15498</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>306</v>
+        <v>117</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>30</v>
@@ -5037,13 +5040,13 @@
         <v>33667</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>307</v>
+        <v>201</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>308</v>
+        <v>219</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -5052,13 +5055,13 @@
         <v>21407</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>310</v>
+        <v>157</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M6" s="7">
         <v>50</v>
@@ -5067,19 +5070,19 @@
         <v>55074</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>313</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>31</v>
@@ -5088,13 +5091,13 @@
         <v>31429</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>163</v>
+        <v>308</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -5103,13 +5106,13 @@
         <v>48556</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>316</v>
+        <v>135</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>318</v>
+        <v>88</v>
       </c>
       <c r="M7" s="7">
         <v>74</v>
@@ -5118,19 +5121,19 @@
         <v>79985</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>665</v>
@@ -5139,13 +5142,13 @@
         <v>654499</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>176</v>
+        <v>316</v>
       </c>
       <c r="H8" s="7">
         <v>808</v>
@@ -5154,13 +5157,13 @@
         <v>903259</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>137</v>
+        <v>319</v>
       </c>
       <c r="M8" s="7">
         <v>1473</v>
@@ -5169,13 +5172,13 @@
         <v>1557759</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>326</v>
+        <v>97</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5193,13 @@
         <v>752395</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>891</v>
@@ -5205,13 +5208,13 @@
         <v>993779</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>1651</v>
@@ -5220,18 +5223,18 @@
         <v>1746174</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5243,13 +5246,13 @@
         <v>70505</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>230</v>
+        <v>322</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>231</v>
+        <v>323</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -5261,10 +5264,10 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>329</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>111</v>
@@ -5273,19 +5276,19 @@
         <v>119515</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>331</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>23</v>
@@ -5294,13 +5297,13 @@
         <v>25002</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>221</v>
+        <v>327</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -5309,13 +5312,13 @@
         <v>14529</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>335</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M11" s="7">
         <v>38</v>
@@ -5324,19 +5327,19 @@
         <v>39531</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>27</v>
+        <v>331</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>80</v>
@@ -5345,13 +5348,13 @@
         <v>86420</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>338</v>
+        <v>169</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="H12" s="7">
         <v>58</v>
@@ -5360,13 +5363,13 @@
         <v>61236</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>340</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>234</v>
+        <v>333</v>
       </c>
       <c r="M12" s="7">
         <v>138</v>
@@ -5375,19 +5378,19 @@
         <v>147656</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>341</v>
+        <v>42</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>342</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>143</v>
@@ -5396,13 +5399,13 @@
         <v>155046</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="H13" s="7">
         <v>117</v>
@@ -5411,13 +5414,13 @@
         <v>122740</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="M13" s="7">
         <v>260</v>
@@ -5426,19 +5429,19 @@
         <v>277786</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>126</v>
+        <v>340</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>1637</v>
@@ -5447,13 +5450,13 @@
         <v>1734462</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H14" s="7">
         <v>1669</v>
@@ -5462,28 +5465,28 @@
         <v>1738699</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="M14" s="7">
         <v>3306</v>
       </c>
       <c r="N14" s="7">
-        <v>3473159</v>
+        <v>3473160</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,13 +5501,13 @@
         <v>2071435</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1906</v>
@@ -5513,33 +5516,33 @@
         <v>1986214</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3853</v>
       </c>
       <c r="N15" s="7">
-        <v>4057648</v>
+        <v>4057649</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5551,13 +5554,13 @@
         <v>15435</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>154</v>
+        <v>351</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -5566,13 +5569,13 @@
         <v>25025</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>66</v>
+        <v>232</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -5581,19 +5584,19 @@
         <v>40460</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>364</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>4</v>
@@ -5602,13 +5605,13 @@
         <v>3883</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -5617,13 +5620,13 @@
         <v>2918</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>368</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -5632,19 +5635,19 @@
         <v>6802</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>277</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>196</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>10</v>
@@ -5653,13 +5656,13 @@
         <v>10615</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>201</v>
+        <v>361</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>371</v>
+        <v>65</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -5668,13 +5671,13 @@
         <v>13847</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>258</v>
+        <v>364</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -5683,19 +5686,19 @@
         <v>24462</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>34</v>
@@ -5704,13 +5707,13 @@
         <v>40286</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -5719,13 +5722,13 @@
         <v>47853</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="M19" s="7">
         <v>80</v>
@@ -5734,19 +5737,19 @@
         <v>88139</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>440</v>
@@ -5755,13 +5758,13 @@
         <v>476667</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="H20" s="7">
         <v>439</v>
@@ -5770,13 +5773,13 @@
         <v>459497</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M20" s="7">
         <v>879</v>
@@ -5785,13 +5788,13 @@
         <v>936163</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,13 +5809,13 @@
         <v>546886</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>526</v>
@@ -5821,13 +5824,13 @@
         <v>549140</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1027</v>
@@ -5836,13 +5839,13 @@
         <v>1096026</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5862,13 @@
         <v>108997</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H22" s="7">
         <v>85</v>
@@ -5874,13 +5877,13 @@
         <v>88835</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>393</v>
+        <v>67</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>308</v>
+        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>186</v>
@@ -5889,19 +5892,19 @@
         <v>197832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>395</v>
+        <v>14</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>329</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>37</v>
@@ -5910,13 +5913,13 @@
         <v>38627</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>396</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
         <v>24</v>
@@ -5925,13 +5928,13 @@
         <v>23204</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>397</v>
+        <v>302</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="M23" s="7">
         <v>61</v>
@@ -5940,19 +5943,19 @@
         <v>61831</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>27</v>
+        <v>331</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>120</v>
@@ -5961,13 +5964,13 @@
         <v>130703</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>179</v>
+        <v>392</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="H24" s="7">
         <v>92</v>
@@ -5976,13 +5979,13 @@
         <v>96490</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>122</v>
+        <v>394</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="M24" s="7">
         <v>212</v>
@@ -5991,19 +5994,19 @@
         <v>227192</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>105</v>
+        <v>397</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>208</v>
@@ -6012,13 +6015,13 @@
         <v>226761</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H25" s="7">
         <v>206</v>
@@ -6027,13 +6030,13 @@
         <v>219150</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M25" s="7">
         <v>414</v>
@@ -6042,19 +6045,19 @@
         <v>445911</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>2742</v>
@@ -6063,28 +6066,28 @@
         <v>2865628</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="H26" s="7">
         <v>2916</v>
       </c>
       <c r="I26" s="7">
-        <v>3101455</v>
+        <v>3101456</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="M26" s="7">
         <v>5658</v>
@@ -6093,13 +6096,13 @@
         <v>5967082</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6114,28 +6117,28 @@
         <v>3370716</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3323</v>
       </c>
       <c r="I27" s="7">
-        <v>3529133</v>
+        <v>3529134</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6531</v>
@@ -6144,18 +6147,18 @@
         <v>6899849</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -6174,7 +6177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83AB558-88BC-4567-82A9-605CC835C94C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9034A71A-D165-41E4-8CB4-6BB1FF316E64}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6191,7 +6194,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6298,13 +6301,13 @@
         <v>24681</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>423</v>
+        <v>206</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>417</v>
       </c>
       <c r="H4" s="7">
         <v>55</v>
@@ -6313,13 +6316,13 @@
         <v>34771</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M4" s="7">
         <v>84</v>
@@ -6328,19 +6331,19 @@
         <v>59453</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>215</v>
+        <v>419</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>425</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>29</v>
@@ -6349,13 +6352,13 @@
         <v>25758</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>427</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -6364,13 +6367,13 @@
         <v>17815</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>429</v>
+        <v>297</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>311</v>
+        <v>422</v>
       </c>
       <c r="M5" s="7">
         <v>56</v>
@@ -6379,19 +6382,19 @@
         <v>43573</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>39</v>
@@ -6400,13 +6403,13 @@
         <v>34975</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="H6" s="7">
         <v>58</v>
@@ -6415,13 +6418,13 @@
         <v>35154</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>202</v>
+        <v>427</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M6" s="7">
         <v>97</v>
@@ -6430,19 +6433,19 @@
         <v>70129</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>88</v>
@@ -6451,13 +6454,13 @@
         <v>73666</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H7" s="7">
         <v>232</v>
@@ -6466,13 +6469,13 @@
         <v>146294</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M7" s="7">
         <v>320</v>
@@ -6481,19 +6484,19 @@
         <v>219960</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>506</v>
@@ -6502,13 +6505,13 @@
         <v>382553</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H8" s="7">
         <v>1055</v>
@@ -6517,13 +6520,13 @@
         <v>601919</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="M8" s="7">
         <v>1561</v>
@@ -6532,13 +6535,13 @@
         <v>984471</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,13 +6556,13 @@
         <v>541634</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1427</v>
@@ -6568,13 +6571,13 @@
         <v>835953</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2118</v>
@@ -6583,18 +6586,18 @@
         <v>1377586</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6606,13 +6609,13 @@
         <v>119553</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="H10" s="7">
         <v>132</v>
@@ -6621,13 +6624,13 @@
         <v>97479</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>231</v>
+        <v>451</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>452</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M10" s="7">
         <v>228</v>
@@ -6636,19 +6639,19 @@
         <v>217033</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>46</v>
@@ -6657,13 +6660,13 @@
         <v>49342</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>251</v>
+        <v>457</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>460</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H11" s="7">
         <v>58</v>
@@ -6672,13 +6675,13 @@
         <v>58995</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>462</v>
+        <v>217</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>69</v>
+        <v>459</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M11" s="7">
         <v>104</v>
@@ -6687,19 +6690,19 @@
         <v>108337</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>463</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>87</v>
@@ -6708,13 +6711,13 @@
         <v>100488</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>262</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H12" s="7">
         <v>122</v>
@@ -6723,13 +6726,13 @@
         <v>95836</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M12" s="7">
         <v>209</v>
@@ -6738,19 +6741,19 @@
         <v>196323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>340</v>
@@ -6759,13 +6762,13 @@
         <v>380946</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H13" s="7">
         <v>481</v>
@@ -6774,13 +6777,13 @@
         <v>373563</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M13" s="7">
         <v>821</v>
@@ -6789,19 +6792,19 @@
         <v>754509</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>1423</v>
@@ -6810,13 +6813,13 @@
         <v>1511693</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H14" s="7">
         <v>2128</v>
@@ -6825,13 +6828,13 @@
         <v>1623648</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M14" s="7">
         <v>3551</v>
@@ -6840,13 +6843,13 @@
         <v>3135341</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6861,13 +6864,13 @@
         <v>2162022</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>2921</v>
@@ -6876,13 +6879,13 @@
         <v>2249521</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>4913</v>
@@ -6891,18 +6894,18 @@
         <v>4411543</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6914,13 +6917,13 @@
         <v>29720</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -6929,13 +6932,13 @@
         <v>31557</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>167</v>
+        <v>400</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -6944,19 +6947,19 @@
         <v>61277</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>14</v>
@@ -6965,13 +6968,13 @@
         <v>16788</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>277</v>
+        <v>23</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>338</v>
+        <v>169</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -6980,13 +6983,13 @@
         <v>15898</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M17" s="7">
         <v>38</v>
@@ -6995,19 +6998,19 @@
         <v>32686</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>490</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>33</v>
@@ -7016,13 +7019,13 @@
         <v>34343</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>375</v>
+        <v>487</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
@@ -7031,13 +7034,13 @@
         <v>25635</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>262</v>
+        <v>85</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>80</v>
+        <v>489</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M18" s="7">
         <v>69</v>
@@ -7046,19 +7049,19 @@
         <v>59978</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>215</v>
+        <v>419</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>427</v>
+        <v>127</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>104</v>
@@ -7067,13 +7070,13 @@
         <v>114279</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="H19" s="7">
         <v>114</v>
@@ -7082,13 +7085,13 @@
         <v>83701</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="M19" s="7">
         <v>218</v>
@@ -7097,19 +7100,19 @@
         <v>197980</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>505</v>
@@ -7118,13 +7121,13 @@
         <v>477909</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="H20" s="7">
         <v>782</v>
@@ -7133,13 +7136,13 @@
         <v>557094</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="M20" s="7">
         <v>1287</v>
@@ -7148,13 +7151,13 @@
         <v>1035004</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7169,13 +7172,13 @@
         <v>673039</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>1004</v>
@@ -7184,13 +7187,13 @@
         <v>713886</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1685</v>
@@ -7199,13 +7202,13 @@
         <v>1386926</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7222,13 +7225,13 @@
         <v>173955</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>513</v>
+        <v>87</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H22" s="7">
         <v>235</v>
@@ -7237,13 +7240,13 @@
         <v>163808</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>317</v>
+        <v>513</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M22" s="7">
         <v>385</v>
@@ -7252,19 +7255,19 @@
         <v>337762</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>249</v>
+        <v>515</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>89</v>
@@ -7273,13 +7276,13 @@
         <v>91888</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>285</v>
+        <v>518</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>311</v>
       </c>
       <c r="H23" s="7">
         <v>109</v>
@@ -7288,13 +7291,13 @@
         <v>92708</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>77</v>
+        <v>519</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M23" s="7">
         <v>198</v>
@@ -7303,19 +7306,19 @@
         <v>184597</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>159</v>
@@ -7324,13 +7327,13 @@
         <v>169806</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>308</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H24" s="7">
         <v>216</v>
@@ -7339,13 +7342,13 @@
         <v>156624</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>185</v>
+        <v>325</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M24" s="7">
         <v>375</v>
@@ -7354,19 +7357,19 @@
         <v>326430</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>532</v>
@@ -7375,13 +7378,13 @@
         <v>568890</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H25" s="7">
         <v>827</v>
@@ -7390,13 +7393,13 @@
         <v>603558</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M25" s="7">
         <v>1359</v>
@@ -7405,19 +7408,19 @@
         <v>1172449</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>2434</v>
@@ -7426,13 +7429,13 @@
         <v>2372155</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H26" s="7">
         <v>3965</v>
@@ -7441,13 +7444,13 @@
         <v>2782661</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M26" s="7">
         <v>6399</v>
@@ -7456,13 +7459,13 @@
         <v>5154816</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7477,13 +7480,13 @@
         <v>3376694</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>5352</v>
@@ -7492,13 +7495,13 @@
         <v>3799360</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>8716</v>
@@ -7507,18 +7510,18 @@
         <v>7176054</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D2F1671-8DED-4D9D-82B5-9192D2F9F52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{009A3012-0060-47D6-91EE-77032836507C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3EFA1EE3-3903-4B65-B2ED-1EAC8860C0F5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8312A8C3-4FB7-427B-950D-39AC4EBBF9E0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="562">
   <si>
     <t>Población según la frecuencia de consumo de leche y derivados en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,1576 +77,1627 @@
     <t>3,19%</t>
   </si>
   <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de leche y derivados en 2012 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de leche y derivados en 2016 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de leche y derivados en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de leche y derivados en 2012 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de leche y derivados en 2016 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de leche y derivados en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>4,01%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
   </si>
   <si>
     <t>16,85%</t>
   </si>
   <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
   </si>
   <si>
     <t>15,89%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
   </si>
   <si>
     <t>16,34%</t>
   </si>
   <si>
-    <t>15,24%</t>
+    <t>15,23%</t>
   </si>
   <si>
     <t>17,33%</t>
@@ -1655,28 +1706,25 @@
     <t>70,25%</t>
   </si>
   <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
   </si>
   <si>
     <t>73,24%</t>
   </si>
   <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
   </si>
   <si>
     <t>71,83%</t>
   </si>
   <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
+    <t>70,54%</t>
   </si>
 </sst>
 </file>
@@ -2088,7 +2136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C81566F-570D-474F-BA18-D047E9C1A7BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BAF337-9C8B-4D24-955A-2AA298581161}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2523,10 +2571,10 @@
         <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -2535,13 +2583,13 @@
         <v>40530</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -2550,13 +2598,13 @@
         <v>82407</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,10 +2619,10 @@
         <v>19335</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>71</v>
@@ -2589,10 +2637,10 @@
         <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>37</v>
@@ -2601,13 +2649,13 @@
         <v>37808</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,13 +2670,13 @@
         <v>57085</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>40</v>
@@ -2637,13 +2685,13 @@
         <v>40518</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>93</v>
@@ -2652,13 +2700,13 @@
         <v>97603</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,13 +2721,13 @@
         <v>90873</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
@@ -2688,13 +2736,13 @@
         <v>90611</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>183</v>
@@ -2703,13 +2751,13 @@
         <v>181483</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,13 +2772,13 @@
         <v>1483361</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>1368</v>
@@ -2739,13 +2787,13 @@
         <v>1396408</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>2811</v>
@@ -2754,13 +2802,13 @@
         <v>2879769</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,7 +2864,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2828,13 +2876,13 @@
         <v>7574</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -2843,13 +2891,13 @@
         <v>7415</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -2858,13 +2906,13 @@
         <v>14990</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,13 +2927,13 @@
         <v>4695</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2894,13 +2942,13 @@
         <v>940</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -2909,13 +2957,13 @@
         <v>5635</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2978,13 @@
         <v>16198</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -2945,13 +2993,13 @@
         <v>6866</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -2960,7 +3008,7 @@
         <v>23064</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>126</v>
@@ -3032,13 +3080,13 @@
         <v>477455</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>417</v>
@@ -3047,13 +3095,13 @@
         <v>440973</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>870</v>
@@ -3062,13 +3110,13 @@
         <v>918428</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3184,13 @@
         <v>82317</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -3151,13 +3199,13 @@
         <v>80367</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>156</v>
@@ -3166,13 +3214,13 @@
         <v>162683</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,13 +3235,13 @@
         <v>39350</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
@@ -3202,13 +3250,13 @@
         <v>28529</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M23" s="7">
         <v>67</v>
@@ -3217,13 +3265,13 @@
         <v>67879</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,10 +3286,10 @@
         <v>111453</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>160</v>
@@ -3253,13 +3301,13 @@
         <v>83233</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>192</v>
@@ -3268,13 +3316,13 @@
         <v>194686</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,13 +3337,13 @@
         <v>186746</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H25" s="7">
         <v>163</v>
@@ -3304,13 +3352,13 @@
         <v>165527</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>355</v>
@@ -3319,13 +3367,13 @@
         <v>352273</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3388,13 @@
         <v>2855796</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="H26" s="7">
         <v>2945</v>
@@ -3355,13 +3403,13 @@
         <v>3020409</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>5739</v>
@@ -3370,13 +3418,13 @@
         <v>5876205</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,7 +3480,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3451,7 +3499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B641F4BE-1BB4-4E07-836E-3994998B7A6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103C37AE-857D-43FE-9CAB-715EDAEDB334}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3468,7 +3516,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3575,13 +3623,13 @@
         <v>31520</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>29</v>
@@ -3590,13 +3638,13 @@
         <v>31230</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
@@ -3605,13 +3653,13 @@
         <v>62749</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>158</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3674,13 @@
         <v>8187</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -3641,13 +3689,13 @@
         <v>11929</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -3656,13 +3704,13 @@
         <v>20116</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>194</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3725,13 @@
         <v>43033</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>37</v>
+        <v>197</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -3692,13 +3740,13 @@
         <v>24607</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M6" s="7">
         <v>61</v>
@@ -3707,13 +3755,13 @@
         <v>67640</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>31</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3776,13 @@
         <v>28315</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -3743,13 +3791,13 @@
         <v>25685</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -3758,13 +3806,13 @@
         <v>54000</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3827,13 @@
         <v>863588</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>208</v>
+        <v>98</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H8" s="7">
         <v>1158</v>
@@ -3794,28 +3842,28 @@
         <v>1242315</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7">
         <v>1966</v>
       </c>
       <c r="N8" s="7">
-        <v>2105905</v>
+        <v>2105904</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,7 +3905,7 @@
         <v>2153</v>
       </c>
       <c r="N9" s="7">
-        <v>2310410</v>
+        <v>2310409</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -3883,13 +3931,13 @@
         <v>50120</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>64</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -3898,13 +3946,13 @@
         <v>58626</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>220</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -3913,13 +3961,13 @@
         <v>108746</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3982,13 @@
         <v>17447</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>223</v>
+        <v>122</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -3949,13 +3997,13 @@
         <v>13399</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>157</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -3964,13 +4012,13 @@
         <v>30846</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +4033,13 @@
         <v>48634</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H12" s="7">
         <v>35</v>
@@ -4000,13 +4048,13 @@
         <v>39671</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M12" s="7">
         <v>83</v>
@@ -4015,13 +4063,13 @@
         <v>88305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>230</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,13 +4084,13 @@
         <v>67588</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -4051,13 +4099,13 @@
         <v>53346</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M13" s="7">
         <v>112</v>
@@ -4066,13 +4114,13 @@
         <v>120934</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4135,13 @@
         <v>1779256</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
         <v>1482</v>
@@ -4102,13 +4150,13 @@
         <v>1589771</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
         <v>3166</v>
@@ -4117,13 +4165,13 @@
         <v>3369027</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,7 +4227,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4191,13 +4239,13 @@
         <v>12463</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>244</v>
+        <v>158</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -4206,13 +4254,13 @@
         <v>17011</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -4221,13 +4269,13 @@
         <v>29474</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>189</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,13 +4290,13 @@
         <v>2810</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>251</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>29</v>
+        <v>260</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4257,13 +4305,13 @@
         <v>2956</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>73</v>
+        <v>261</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>114</v>
+        <v>262</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>252</v>
+        <v>71</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -4272,13 +4320,13 @@
         <v>5766</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4341,13 @@
         <v>12792</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>90</v>
+        <v>265</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -4308,13 +4356,13 @@
         <v>7938</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -4323,13 +4371,13 @@
         <v>20729</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>256</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,13 +4392,13 @@
         <v>18574</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>161</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -4362,10 +4410,10 @@
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>272</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -4374,13 +4422,13 @@
         <v>29883</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>183</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,13 +4443,13 @@
         <v>434542</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="H20" s="7">
         <v>375</v>
@@ -4410,13 +4458,13 @@
         <v>418513</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M20" s="7">
         <v>769</v>
@@ -4425,13 +4473,13 @@
         <v>853056</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,13 +4547,13 @@
         <v>94103</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>283</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>159</v>
       </c>
       <c r="H22" s="7">
         <v>98</v>
@@ -4514,13 +4562,13 @@
         <v>106867</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="M22" s="7">
         <v>183</v>
@@ -4529,13 +4577,13 @@
         <v>200969</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>62</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,13 +4598,13 @@
         <v>28444</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>274</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>26</v>
@@ -4565,13 +4613,13 @@
         <v>28284</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="M23" s="7">
         <v>52</v>
@@ -4580,13 +4628,13 @@
         <v>56728</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>278</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4649,13 @@
         <v>104459</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="H24" s="7">
         <v>66</v>
@@ -4616,13 +4664,13 @@
         <v>72215</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>189</v>
+        <v>295</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="M24" s="7">
         <v>163</v>
@@ -4631,13 +4679,13 @@
         <v>176674</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4700,13 @@
         <v>114476</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>164</v>
+        <v>299</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>301</v>
       </c>
       <c r="H25" s="7">
         <v>83</v>
@@ -4667,13 +4715,13 @@
         <v>90341</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>37</v>
+        <v>302</v>
       </c>
       <c r="M25" s="7">
         <v>190</v>
@@ -4682,13 +4730,13 @@
         <v>204817</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4751,13 @@
         <v>3077386</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="H26" s="7">
         <v>3015</v>
@@ -4718,28 +4766,28 @@
         <v>3250600</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>291</v>
+        <v>212</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="M26" s="7">
         <v>5901</v>
       </c>
       <c r="N26" s="7">
-        <v>6327986</v>
+        <v>6327987</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,7 +4829,7 @@
         <v>6489</v>
       </c>
       <c r="N27" s="7">
-        <v>6967174</v>
+        <v>6967175</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -4795,7 +4843,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4814,7 +4862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3018C26B-692A-4EFE-A935-D805DBB2D215}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8426162-02C3-43A7-8FBC-E5B60C03B9ED}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4831,7 +4879,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4938,13 +4986,13 @@
         <v>23058</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -4953,13 +5001,13 @@
         <v>14800</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>314</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>299</v>
+        <v>22</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -4968,13 +5016,13 @@
         <v>37858</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>247</v>
+        <v>315</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +5037,13 @@
         <v>9741</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -5004,13 +5052,13 @@
         <v>5757</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -5019,13 +5067,13 @@
         <v>15498</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>117</v>
+        <v>317</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>223</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5088,13 @@
         <v>33667</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>201</v>
+        <v>319</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -5055,13 +5103,13 @@
         <v>21407</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>157</v>
+        <v>322</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="M6" s="7">
         <v>50</v>
@@ -5073,10 +5121,10 @@
         <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>233</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,13 +5139,13 @@
         <v>31429</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -5106,13 +5154,13 @@
         <v>48556</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>135</v>
+        <v>327</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>88</v>
+        <v>329</v>
       </c>
       <c r="M7" s="7">
         <v>74</v>
@@ -5121,13 +5169,13 @@
         <v>79985</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5190,13 @@
         <v>654499</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>315</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H8" s="7">
         <v>808</v>
@@ -5157,13 +5205,13 @@
         <v>903259</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="M8" s="7">
         <v>1473</v>
@@ -5172,13 +5220,13 @@
         <v>1557759</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>97</v>
+        <v>335</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5246,13 +5294,13 @@
         <v>70505</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -5264,10 +5312,10 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>340</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>111</v>
@@ -5276,13 +5324,13 @@
         <v>119515</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,13 +5345,13 @@
         <v>25002</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -5312,13 +5360,13 @@
         <v>14529</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>346</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>150</v>
+        <v>344</v>
       </c>
       <c r="M11" s="7">
         <v>38</v>
@@ -5327,13 +5375,13 @@
         <v>39531</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>331</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>157</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,13 +5396,13 @@
         <v>86420</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>169</v>
+        <v>350</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>164</v>
+        <v>351</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="H12" s="7">
         <v>58</v>
@@ -5363,13 +5411,13 @@
         <v>61236</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>84</v>
+        <v>224</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="M12" s="7">
         <v>138</v>
@@ -5378,13 +5426,13 @@
         <v>147656</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>279</v>
+        <v>354</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>131</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,13 +5447,13 @@
         <v>155046</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="H13" s="7">
         <v>117</v>
@@ -5414,13 +5462,13 @@
         <v>122740</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="M13" s="7">
         <v>260</v>
@@ -5429,13 +5477,13 @@
         <v>277786</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>340</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,13 +5498,13 @@
         <v>1734462</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>1669</v>
@@ -5465,28 +5513,28 @@
         <v>1738699</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>3306</v>
       </c>
       <c r="N14" s="7">
-        <v>3473160</v>
+        <v>3473159</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,7 +5576,7 @@
         <v>3853</v>
       </c>
       <c r="N15" s="7">
-        <v>4057649</v>
+        <v>4057648</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -5542,7 +5590,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5554,13 +5602,13 @@
         <v>15435</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -5569,13 +5617,13 @@
         <v>25025</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>232</v>
+        <v>373</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -5584,13 +5632,13 @@
         <v>40460</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>168</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,13 +5653,13 @@
         <v>3883</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>357</v>
+        <v>28</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -5620,13 +5668,13 @@
         <v>2918</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>379</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>188</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -5635,13 +5683,13 @@
         <v>6802</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>277</v>
+        <v>381</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>274</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,13 +5704,13 @@
         <v>10615</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>65</v>
+        <v>385</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -5671,13 +5719,13 @@
         <v>13847</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>364</v>
+        <v>271</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -5686,13 +5734,13 @@
         <v>24462</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>186</v>
+        <v>388</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>366</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>306</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,13 +5755,13 @@
         <v>40286</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -5722,13 +5770,13 @@
         <v>47853</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="M19" s="7">
         <v>80</v>
@@ -5737,13 +5785,13 @@
         <v>88139</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>374</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,13 +5806,13 @@
         <v>476667</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="H20" s="7">
         <v>439</v>
@@ -5773,13 +5821,13 @@
         <v>459497</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="M20" s="7">
         <v>879</v>
@@ -5788,13 +5836,13 @@
         <v>936163</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,13 +5910,13 @@
         <v>108997</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>231</v>
+        <v>406</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>385</v>
+        <v>39</v>
       </c>
       <c r="H22" s="7">
         <v>85</v>
@@ -5877,13 +5925,13 @@
         <v>88835</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>67</v>
+        <v>407</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>408</v>
       </c>
       <c r="M22" s="7">
         <v>186</v>
@@ -5892,13 +5940,13 @@
         <v>197832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,13 +5961,13 @@
         <v>38627</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>275</v>
+        <v>110</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>108</v>
+        <v>316</v>
       </c>
       <c r="H23" s="7">
         <v>24</v>
@@ -5928,13 +5976,13 @@
         <v>23204</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>302</v>
+        <v>411</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="M23" s="7">
         <v>61</v>
@@ -5943,13 +5991,13 @@
         <v>61831</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>331</v>
+        <v>415</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,13 +6012,13 @@
         <v>130703</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>393</v>
+        <v>272</v>
       </c>
       <c r="H24" s="7">
         <v>92</v>
@@ -5982,10 +6030,10 @@
         <v>34</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="M24" s="7">
         <v>212</v>
@@ -5994,13 +6042,13 @@
         <v>227192</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,13 +6063,13 @@
         <v>226761</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="H25" s="7">
         <v>206</v>
@@ -6030,13 +6078,13 @@
         <v>219150</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="M25" s="7">
         <v>414</v>
@@ -6045,13 +6093,13 @@
         <v>445911</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>405</v>
+        <v>270</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6066,43 +6114,43 @@
         <v>2865628</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="H26" s="7">
         <v>2916</v>
       </c>
       <c r="I26" s="7">
-        <v>3101456</v>
+        <v>3101455</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>412</v>
+        <v>304</v>
       </c>
       <c r="M26" s="7">
         <v>5658</v>
       </c>
       <c r="N26" s="7">
-        <v>5967082</v>
+        <v>5967083</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,7 +6177,7 @@
         <v>3323</v>
       </c>
       <c r="I27" s="7">
-        <v>3529134</v>
+        <v>3529133</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -6144,7 +6192,7 @@
         <v>6531</v>
       </c>
       <c r="N27" s="7">
-        <v>6899849</v>
+        <v>6899850</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -6158,7 +6206,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6177,7 +6225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9034A71A-D165-41E4-8CB4-6BB1FF316E64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0992BB3-2A77-4D35-B8CD-A9770237AEB9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6194,7 +6242,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6301,13 +6349,13 @@
         <v>24681</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>417</v>
+        <v>374</v>
       </c>
       <c r="H4" s="7">
         <v>55</v>
@@ -6319,10 +6367,10 @@
         <v>44</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>249</v>
+        <v>436</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="M4" s="7">
         <v>84</v>
@@ -6331,13 +6379,13 @@
         <v>59453</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6352,13 +6400,13 @@
         <v>25758</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -6367,13 +6415,13 @@
         <v>17815</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>297</v>
+        <v>441</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>123</v>
+        <v>318</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="M5" s="7">
         <v>56</v>
@@ -6382,13 +6430,13 @@
         <v>43573</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>423</v>
+        <v>302</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6403,13 +6451,13 @@
         <v>34975</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="H6" s="7">
         <v>58</v>
@@ -6418,13 +6466,13 @@
         <v>35154</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>427</v>
+        <v>205</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="M6" s="7">
         <v>97</v>
@@ -6433,13 +6481,13 @@
         <v>70129</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>336</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6454,13 +6502,13 @@
         <v>73666</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="H7" s="7">
         <v>232</v>
@@ -6469,13 +6517,13 @@
         <v>146294</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="M7" s="7">
         <v>320</v>
@@ -6484,13 +6532,13 @@
         <v>219960</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6505,13 +6553,13 @@
         <v>382553</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="H8" s="7">
         <v>1055</v>
@@ -6520,13 +6568,13 @@
         <v>601919</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="M8" s="7">
         <v>1561</v>
@@ -6535,13 +6583,13 @@
         <v>984471</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6609,13 +6657,13 @@
         <v>119553</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="H10" s="7">
         <v>132</v>
@@ -6624,13 +6672,13 @@
         <v>97479</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>453</v>
+        <v>352</v>
       </c>
       <c r="M10" s="7">
         <v>228</v>
@@ -6639,13 +6687,13 @@
         <v>217033</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>454</v>
+        <v>33</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>455</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6660,13 +6708,13 @@
         <v>49342</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>152</v>
+        <v>473</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="H11" s="7">
         <v>58</v>
@@ -6675,13 +6723,13 @@
         <v>58995</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>217</v>
+        <v>475</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>459</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>86</v>
+        <v>476</v>
       </c>
       <c r="M11" s="7">
         <v>104</v>
@@ -6690,13 +6738,13 @@
         <v>108337</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>383</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6711,28 +6759,28 @@
         <v>100488</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>352</v>
+        <v>477</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>85</v>
+        <v>253</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="H12" s="7">
         <v>122</v>
       </c>
       <c r="I12" s="7">
-        <v>95836</v>
+        <v>95835</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>424</v>
+        <v>355</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>461</v>
+        <v>351</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="M12" s="7">
         <v>209</v>
@@ -6741,13 +6789,13 @@
         <v>196323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>246</v>
+        <v>375</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6762,13 +6810,13 @@
         <v>380946</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="H13" s="7">
         <v>481</v>
@@ -6777,13 +6825,13 @@
         <v>373563</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="M13" s="7">
         <v>821</v>
@@ -6792,13 +6840,13 @@
         <v>754509</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6813,28 +6861,28 @@
         <v>1511693</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="H14" s="7">
         <v>2128</v>
       </c>
       <c r="I14" s="7">
-        <v>1623648</v>
+        <v>1623647</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="M14" s="7">
         <v>3551</v>
@@ -6843,13 +6891,13 @@
         <v>3135341</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6876,7 +6924,7 @@
         <v>2921</v>
       </c>
       <c r="I15" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -6905,7 +6953,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6917,13 +6965,13 @@
         <v>29720</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>499</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -6932,13 +6980,13 @@
         <v>31557</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>62</v>
+        <v>436</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>501</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -6947,13 +6995,13 @@
         <v>61277</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>484</v>
+        <v>220</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>456</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6968,13 +7016,13 @@
         <v>16788</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>23</v>
+        <v>503</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>169</v>
+        <v>505</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -6983,13 +7031,13 @@
         <v>15898</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>186</v>
+        <v>388</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>105</v>
+        <v>506</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="M17" s="7">
         <v>38</v>
@@ -6998,13 +7046,13 @@
         <v>32686</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7019,13 +7067,13 @@
         <v>34343</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>484</v>
+        <v>42</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
@@ -7034,13 +7082,13 @@
         <v>25635</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>85</v>
+        <v>509</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>489</v>
+        <v>64</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="M18" s="7">
         <v>69</v>
@@ -7049,13 +7097,13 @@
         <v>59978</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>127</v>
+        <v>385</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7070,13 +7118,13 @@
         <v>114279</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="H19" s="7">
         <v>114</v>
@@ -7085,13 +7133,13 @@
         <v>83701</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="M19" s="7">
         <v>218</v>
@@ -7100,13 +7148,13 @@
         <v>197980</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7121,13 +7169,13 @@
         <v>477909</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="H20" s="7">
         <v>782</v>
@@ -7136,13 +7184,13 @@
         <v>557094</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="M20" s="7">
         <v>1287</v>
@@ -7151,13 +7199,13 @@
         <v>1035004</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7225,13 +7273,13 @@
         <v>173955</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>510</v>
+        <v>359</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>87</v>
+        <v>437</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="H22" s="7">
         <v>235</v>
@@ -7240,13 +7288,13 @@
         <v>163808</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="M22" s="7">
         <v>385</v>
@@ -7255,13 +7303,13 @@
         <v>337762</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>516</v>
+        <v>44</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7276,13 +7324,13 @@
         <v>91888</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>311</v>
+        <v>236</v>
       </c>
       <c r="H23" s="7">
         <v>109</v>
@@ -7291,13 +7339,13 @@
         <v>92708</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>519</v>
+        <v>65</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="M23" s="7">
         <v>198</v>
@@ -7306,13 +7354,13 @@
         <v>184597</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>396</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7327,13 +7375,13 @@
         <v>169806</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>308</v>
+        <v>205</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="H24" s="7">
         <v>216</v>
@@ -7342,13 +7390,13 @@
         <v>156624</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>524</v>
+        <v>387</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>325</v>
+        <v>541</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="M24" s="7">
         <v>375</v>
@@ -7357,13 +7405,13 @@
         <v>326430</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>462</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7378,13 +7426,13 @@
         <v>568890</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="H25" s="7">
         <v>827</v>
@@ -7393,13 +7441,13 @@
         <v>603558</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="M25" s="7">
         <v>1359</v>
@@ -7408,13 +7456,13 @@
         <v>1172449</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7426,16 +7474,16 @@
         <v>2434</v>
       </c>
       <c r="D26" s="7">
-        <v>2372155</v>
+        <v>2372156</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="H26" s="7">
         <v>3965</v>
@@ -7444,28 +7492,28 @@
         <v>2782661</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="M26" s="7">
         <v>6399</v>
       </c>
       <c r="N26" s="7">
-        <v>5154816</v>
+        <v>5154817</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>545</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7477,7 +7525,7 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7507,7 +7555,7 @@
         <v>8716</v>
       </c>
       <c r="N27" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -7521,7 +7569,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{009A3012-0060-47D6-91EE-77032836507C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32C73FC6-9AA4-46A4-902F-55AA0DE43CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8312A8C3-4FB7-427B-950D-39AC4EBBF9E0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9946DAA4-8322-478C-854E-767B8E87B33F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1349,382 +1349,382 @@
     <t>Población según la frecuencia de consumo de leche y derivados en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
   </si>
   <si>
     <t>70,63%</t>
   </si>
   <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
+    <t>76,74%</t>
   </si>
 </sst>
 </file>
@@ -2136,7 +2136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BAF337-9C8B-4D24-955A-2AA298581161}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088FAA82-5EBB-4924-97BB-F6AC7C8CA2D2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2491,7 +2491,7 @@
         <v>2058</v>
       </c>
       <c r="N8" s="7">
-        <v>2078008</v>
+        <v>2078007</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -2542,7 +2542,7 @@
         <v>2329</v>
       </c>
       <c r="N9" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -3385,7 +3385,7 @@
         <v>2794</v>
       </c>
       <c r="D26" s="7">
-        <v>2855796</v>
+        <v>2855795</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>173</v>
@@ -3436,7 +3436,7 @@
         <v>3213</v>
       </c>
       <c r="D27" s="7">
-        <v>3275662</v>
+        <v>3275661</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -3499,7 +3499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103C37AE-857D-43FE-9CAB-715EDAEDB334}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645A2A2F-522F-4D1F-8EE6-C1A1B5013576}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4862,7 +4862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8426162-02C3-43A7-8FBC-E5B60C03B9ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A4F40E-484C-489F-81D0-D0D58D5960EB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5525,7 +5525,7 @@
         <v>3306</v>
       </c>
       <c r="N14" s="7">
-        <v>3473159</v>
+        <v>3473160</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>368</v>
@@ -5576,7 +5576,7 @@
         <v>3853</v>
       </c>
       <c r="N15" s="7">
-        <v>4057648</v>
+        <v>4057649</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -5833,7 +5833,7 @@
         <v>879</v>
       </c>
       <c r="N20" s="7">
-        <v>936163</v>
+        <v>936164</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>403</v>
@@ -5884,7 +5884,7 @@
         <v>1027</v>
       </c>
       <c r="N21" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -6141,7 +6141,7 @@
         <v>5658</v>
       </c>
       <c r="N26" s="7">
-        <v>5967083</v>
+        <v>5967082</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>432</v>
@@ -6192,7 +6192,7 @@
         <v>6531</v>
       </c>
       <c r="N27" s="7">
-        <v>6899850</v>
+        <v>6899849</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -6225,7 +6225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0992BB3-2A77-4D35-B8CD-A9770237AEB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2A1016-BAF5-4B9B-B8BA-2CE712B01AA3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6346,43 +6346,43 @@
         <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>24681</v>
+        <v>22129</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>372</v>
+        <v>436</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>210</v>
+        <v>409</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="H4" s="7">
         <v>55</v>
       </c>
       <c r="I4" s="7">
-        <v>34771</v>
+        <v>30905</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>436</v>
+        <v>69</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>424</v>
+        <v>46</v>
       </c>
       <c r="M4" s="7">
         <v>84</v>
       </c>
       <c r="N4" s="7">
-        <v>59453</v>
+        <v>53034</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>437</v>
+        <v>350</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>438</v>
@@ -6397,13 +6397,13 @@
         <v>29</v>
       </c>
       <c r="D5" s="7">
-        <v>25758</v>
+        <v>23691</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>439</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>354</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>440</v>
@@ -6412,31 +6412,31 @@
         <v>27</v>
       </c>
       <c r="I5" s="7">
-        <v>17815</v>
+        <v>15878</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>441</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>318</v>
+        <v>442</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>442</v>
+        <v>284</v>
       </c>
       <c r="M5" s="7">
         <v>56</v>
       </c>
       <c r="N5" s="7">
-        <v>43573</v>
+        <v>39569</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>302</v>
+        <v>443</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6448,46 +6448,46 @@
         <v>39</v>
       </c>
       <c r="D6" s="7">
-        <v>34975</v>
+        <v>32305</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H6" s="7">
         <v>58</v>
       </c>
       <c r="I6" s="7">
-        <v>35154</v>
+        <v>30938</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>205</v>
+        <v>448</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="M6" s="7">
         <v>97</v>
       </c>
       <c r="N6" s="7">
-        <v>70129</v>
+        <v>63244</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>447</v>
+        <v>165</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,46 +6499,46 @@
         <v>88</v>
       </c>
       <c r="D7" s="7">
-        <v>73666</v>
+        <v>68298</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H7" s="7">
         <v>232</v>
       </c>
       <c r="I7" s="7">
-        <v>146294</v>
+        <v>128917</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M7" s="7">
         <v>320</v>
       </c>
       <c r="N7" s="7">
-        <v>219960</v>
+        <v>197215</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,46 +6550,46 @@
         <v>506</v>
       </c>
       <c r="D8" s="7">
-        <v>382553</v>
+        <v>368515</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H8" s="7">
         <v>1055</v>
       </c>
       <c r="I8" s="7">
-        <v>601919</v>
+        <v>548870</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M8" s="7">
         <v>1561</v>
       </c>
       <c r="N8" s="7">
-        <v>984471</v>
+        <v>917384</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,7 +6601,7 @@
         <v>691</v>
       </c>
       <c r="D9" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -6616,7 +6616,7 @@
         <v>1427</v>
       </c>
       <c r="I9" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -6631,7 +6631,7 @@
         <v>2118</v>
       </c>
       <c r="N9" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -6654,46 +6654,46 @@
         <v>96</v>
       </c>
       <c r="D10" s="7">
-        <v>119553</v>
+        <v>111195</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>91</v>
+        <v>470</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="H10" s="7">
         <v>132</v>
       </c>
       <c r="I10" s="7">
-        <v>97479</v>
+        <v>88974</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>385</v>
+        <v>474</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="M10" s="7">
         <v>228</v>
       </c>
       <c r="N10" s="7">
-        <v>217033</v>
+        <v>200169</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6705,46 +6705,46 @@
         <v>46</v>
       </c>
       <c r="D11" s="7">
-        <v>49342</v>
+        <v>45650</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>472</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>473</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>474</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
         <v>58</v>
       </c>
       <c r="I11" s="7">
-        <v>58995</v>
+        <v>109709</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>475</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>476</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M11" s="7">
         <v>104</v>
       </c>
       <c r="N11" s="7">
-        <v>108337</v>
+        <v>155359</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>383</v>
+        <v>478</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>416</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6756,46 +6756,46 @@
         <v>87</v>
       </c>
       <c r="D12" s="7">
-        <v>100488</v>
+        <v>98510</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>477</v>
+        <v>436</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>253</v>
+        <v>162</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H12" s="7">
         <v>122</v>
       </c>
       <c r="I12" s="7">
-        <v>95835</v>
+        <v>87391</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>355</v>
+        <v>481</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>351</v>
+        <v>482</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>479</v>
+        <v>171</v>
       </c>
       <c r="M12" s="7">
         <v>209</v>
       </c>
       <c r="N12" s="7">
-        <v>196323</v>
+        <v>185902</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>375</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>479</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6807,46 +6807,46 @@
         <v>340</v>
       </c>
       <c r="D13" s="7">
-        <v>380946</v>
+        <v>357619</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="H13" s="7">
         <v>481</v>
       </c>
       <c r="I13" s="7">
-        <v>373563</v>
+        <v>330816</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="M13" s="7">
         <v>821</v>
       </c>
       <c r="N13" s="7">
-        <v>754509</v>
+        <v>688435</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6858,46 +6858,46 @@
         <v>1423</v>
       </c>
       <c r="D14" s="7">
-        <v>1511693</v>
+        <v>1677353</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="H14" s="7">
         <v>2128</v>
       </c>
       <c r="I14" s="7">
-        <v>1623647</v>
+        <v>1620933</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="M14" s="7">
         <v>3551</v>
       </c>
       <c r="N14" s="7">
-        <v>3135341</v>
+        <v>3298285</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6909,7 +6909,7 @@
         <v>1992</v>
       </c>
       <c r="D15" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -6924,7 +6924,7 @@
         <v>2921</v>
       </c>
       <c r="I15" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -6939,7 +6939,7 @@
         <v>4913</v>
       </c>
       <c r="N15" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -6962,46 +6962,46 @@
         <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>29720</v>
+        <v>28141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>499</v>
+        <v>376</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
       </c>
       <c r="I16" s="7">
-        <v>31557</v>
+        <v>29370</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>503</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>436</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
       </c>
       <c r="N16" s="7">
-        <v>61277</v>
+        <v>57511</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>220</v>
+        <v>418</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7013,46 +7013,46 @@
         <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>16788</v>
+        <v>15532</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
       </c>
       <c r="I17" s="7">
-        <v>15898</v>
+        <v>14498</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>388</v>
+        <v>18</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>506</v>
+        <v>349</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
       <c r="M17" s="7">
         <v>38</v>
       </c>
       <c r="N17" s="7">
-        <v>32686</v>
+        <v>30031</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>509</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>154</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7064,46 +7064,46 @@
         <v>33</v>
       </c>
       <c r="D18" s="7">
-        <v>34343</v>
+        <v>33297</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>479</v>
+        <v>359</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>508</v>
+        <v>390</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
       </c>
       <c r="I18" s="7">
-        <v>25635</v>
+        <v>23940</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>64</v>
+        <v>511</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M18" s="7">
         <v>69</v>
       </c>
       <c r="N18" s="7">
-        <v>59978</v>
+        <v>57237</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>437</v>
+        <v>86</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>385</v>
+        <v>236</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7115,46 +7115,46 @@
         <v>104</v>
       </c>
       <c r="D19" s="7">
-        <v>114279</v>
+        <v>106250</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H19" s="7">
         <v>114</v>
       </c>
       <c r="I19" s="7">
-        <v>83701</v>
+        <v>76208</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="M19" s="7">
         <v>218</v>
       </c>
       <c r="N19" s="7">
-        <v>197980</v>
+        <v>182458</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7166,46 +7166,46 @@
         <v>505</v>
       </c>
       <c r="D20" s="7">
-        <v>477909</v>
+        <v>463402</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H20" s="7">
         <v>782</v>
       </c>
       <c r="I20" s="7">
-        <v>557094</v>
+        <v>516447</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M20" s="7">
         <v>1287</v>
       </c>
       <c r="N20" s="7">
-        <v>1035004</v>
+        <v>979849</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>528</v>
+        <v>464</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7217,7 +7217,7 @@
         <v>681</v>
       </c>
       <c r="D21" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -7232,7 +7232,7 @@
         <v>1004</v>
       </c>
       <c r="I21" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -7247,7 +7247,7 @@
         <v>1685</v>
       </c>
       <c r="N21" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -7270,43 +7270,43 @@
         <v>150</v>
       </c>
       <c r="D22" s="7">
-        <v>173955</v>
+        <v>161465</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>359</v>
+        <v>531</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>437</v>
+        <v>532</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H22" s="7">
         <v>235</v>
       </c>
       <c r="I22" s="7">
-        <v>163808</v>
+        <v>149249</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>532</v>
+        <v>231</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>533</v>
+        <v>171</v>
       </c>
       <c r="M22" s="7">
         <v>385</v>
       </c>
       <c r="N22" s="7">
-        <v>337762</v>
+        <v>310715</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>534</v>
+        <v>79</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>44</v>
+        <v>375</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>535</v>
@@ -7321,28 +7321,28 @@
         <v>89</v>
       </c>
       <c r="D23" s="7">
-        <v>91888</v>
+        <v>84874</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>536</v>
+        <v>219</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H23" s="7">
         <v>109</v>
       </c>
       <c r="I23" s="7">
-        <v>92708</v>
+        <v>140085</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>65</v>
+        <v>536</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>537</v>
@@ -7351,16 +7351,16 @@
         <v>198</v>
       </c>
       <c r="N23" s="7">
-        <v>184597</v>
+        <v>224959</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>538</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>321</v>
+        <v>150</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>77</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7372,37 +7372,37 @@
         <v>159</v>
       </c>
       <c r="D24" s="7">
-        <v>169806</v>
+        <v>164113</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>540</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>216</v>
       </c>
       <c r="I24" s="7">
-        <v>156624</v>
+        <v>142269</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>387</v>
+        <v>541</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>541</v>
+        <v>37</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>534</v>
+        <v>184</v>
       </c>
       <c r="M24" s="7">
         <v>375</v>
       </c>
       <c r="N24" s="7">
-        <v>326430</v>
+        <v>306382</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>542</v>
@@ -7411,7 +7411,7 @@
         <v>543</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>544</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7423,46 +7423,46 @@
         <v>532</v>
       </c>
       <c r="D25" s="7">
-        <v>568890</v>
+        <v>532167</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="H25" s="7">
         <v>827</v>
       </c>
       <c r="I25" s="7">
-        <v>603558</v>
+        <v>535941</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>550</v>
       </c>
       <c r="M25" s="7">
         <v>1359</v>
       </c>
       <c r="N25" s="7">
-        <v>1172449</v>
+        <v>1068108</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7474,46 +7474,46 @@
         <v>2434</v>
       </c>
       <c r="D26" s="7">
-        <v>2372156</v>
+        <v>2509271</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>556</v>
       </c>
       <c r="H26" s="7">
         <v>3965</v>
       </c>
       <c r="I26" s="7">
-        <v>2782661</v>
+        <v>2686249</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="M26" s="7">
         <v>6399</v>
       </c>
       <c r="N26" s="7">
-        <v>5154817</v>
+        <v>5195520</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7525,7 +7525,7 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7540,7 +7540,7 @@
         <v>5352</v>
       </c>
       <c r="I27" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -7555,7 +7555,7 @@
         <v>8716</v>
       </c>
       <c r="N27" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
